--- a/프로젝트 파일/03.프로젝트 WBS_SafetyLink.xlsx
+++ b/프로젝트 파일/03.프로젝트 WBS_SafetyLink.xlsx
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>공정</t>
   </si>
@@ -724,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차량 상태 조회 (연료, 타이어 공기압 등 소모품)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차량 원격 제어 (에어컨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -948,6 +944,14 @@
   </si>
   <si>
     <t>이새롬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 상태 조회 (연료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 상태 조회 (연료, 타이어 공기압)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1095,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,6 +1477,18 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,23 +1510,14 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,10 +1802,10 @@
   <dimension ref="A1:AS221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="R53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1812,54 +1825,54 @@
         <v>23</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="67"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="16">
         <f ca="1">AVERAGE(C5:C117)</f>
-        <v>0.74781219272369681</v>
-      </c>
-      <c r="I1" s="68" t="s">
+        <v>0.94395280235988199</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="60">
+      <c r="J1" s="71"/>
+      <c r="K1" s="64">
         <f ca="1">TODAY()</f>
-        <v>44168</v>
-      </c>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="63" t="s">
+        <v>44178</v>
+      </c>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="64" t="s">
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="69" t="s">
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="70"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="60"/>
       <c r="AN1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1874,19 +1887,19 @@
       <c r="A2" s="12"/>
       <c r="B2" s="21"/>
       <c r="C2" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="E2" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="56" t="s">
-        <v>175</v>
-      </c>
       <c r="G2" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
@@ -1927,28 +1940,28 @@
       <c r="AR2"/>
     </row>
     <row r="3" spans="1:45" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="62" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -2064,14 +2077,14 @@
       </c>
     </row>
     <row r="4" spans="1:45" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="43">
         <v>44152</v>
       </c>
@@ -2185,7 +2198,7 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="63" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -2209,7 +2222,7 @@
         <v>44153</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
@@ -2250,7 +2263,7 @@
       <c r="AS5" s="36"/>
     </row>
     <row r="6" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="22" t="s">
         <v>79</v>
       </c>
@@ -2272,7 +2285,7 @@
         <v>44158</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -2313,7 +2326,7 @@
       <c r="AS6" s="36"/>
     </row>
     <row r="7" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="22" t="s">
         <v>35</v>
       </c>
@@ -2368,7 +2381,7 @@
       <c r="AS7" s="36"/>
     </row>
     <row r="8" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="23" t="s">
         <v>29</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>44152</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="33"/>
@@ -2429,7 +2442,7 @@
       <c r="AS8" s="36"/>
     </row>
     <row r="9" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="22" t="s">
         <v>36</v>
       </c>
@@ -2484,7 +2497,7 @@
       <c r="AS9" s="36"/>
     </row>
     <row r="10" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
@@ -2504,7 +2517,7 @@
         <v>44165</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -2545,13 +2558,13 @@
       <c r="AS10" s="36"/>
     </row>
     <row r="11" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="8">
@@ -2565,7 +2578,7 @@
         <v>44179</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
@@ -2606,7 +2619,7 @@
       <c r="AS11" s="36"/>
     </row>
     <row r="12" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="22" t="s">
         <v>32</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>44187</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
@@ -2667,7 +2680,7 @@
       <c r="AS12" s="36"/>
     </row>
     <row r="13" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="22" t="s">
         <v>33</v>
       </c>
@@ -2687,7 +2700,7 @@
         <v>44188</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -2728,7 +2741,7 @@
       <c r="AS13" s="48"/>
     </row>
     <row r="14" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2785,7 +2798,7 @@
       <c r="AS14" s="36"/>
     </row>
     <row r="15" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="23" t="s">
         <v>50</v>
       </c>
@@ -2805,7 +2818,7 @@
         <v>44152</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="33"/>
@@ -2846,7 +2859,7 @@
       <c r="AS15" s="36"/>
     </row>
     <row r="16" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="23" t="s">
         <v>49</v>
       </c>
@@ -2901,7 +2914,7 @@
       <c r="AS16" s="36"/>
     </row>
     <row r="17" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2921,7 +2934,7 @@
         <v>44152</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="33"/>
@@ -2962,7 +2975,7 @@
       <c r="AS17" s="36"/>
     </row>
     <row r="18" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2982,7 +2995,7 @@
         <v>44152</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="33"/>
@@ -3023,7 +3036,7 @@
       <c r="AS18" s="36"/>
     </row>
     <row r="19" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3043,7 +3056,7 @@
         <v>44152</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="33"/>
@@ -3084,7 +3097,7 @@
       <c r="AS19" s="36"/>
     </row>
     <row r="20" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3104,7 +3117,7 @@
         <v>44152</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="33"/>
@@ -3145,7 +3158,7 @@
       <c r="AS20" s="36"/>
     </row>
     <row r="21" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3165,7 +3178,7 @@
         <v>44152</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="33"/>
@@ -3206,7 +3219,7 @@
       <c r="AS21" s="36"/>
     </row>
     <row r="22" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="25" t="s">
         <v>42</v>
       </c>
@@ -3261,7 +3274,7 @@
       <c r="AS22" s="36"/>
     </row>
     <row r="23" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="23" t="s">
         <v>34</v>
       </c>
@@ -3281,7 +3294,7 @@
         <v>44158</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -3322,7 +3335,7 @@
       <c r="AS23" s="36"/>
     </row>
     <row r="24" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="23" t="s">
         <v>39</v>
       </c>
@@ -3342,7 +3355,7 @@
         <v>44160</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -3383,7 +3396,7 @@
       <c r="AS24" s="36"/>
     </row>
     <row r="25" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="23" t="s">
         <v>41</v>
       </c>
@@ -3403,7 +3416,7 @@
         <v>44153</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
@@ -3444,9 +3457,9 @@
       <c r="AS25" s="36"/>
     </row>
     <row r="26" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" ca="1" si="0"/>
@@ -3499,7 +3512,7 @@
       <c r="AS26" s="36"/>
     </row>
     <row r="27" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="26" t="s">
         <v>40</v>
       </c>
@@ -3554,7 +3567,7 @@
       <c r="AS27" s="36"/>
     </row>
     <row r="28" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5" t="s">
         <v>84</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>44153</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -3615,7 +3628,7 @@
       <c r="AS28" s="36"/>
     </row>
     <row r="29" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
@@ -3635,7 +3648,7 @@
         <v>44159</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
@@ -3676,7 +3689,7 @@
       <c r="AS29" s="36"/>
     </row>
     <row r="30" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
@@ -3696,7 +3709,7 @@
         <v>44153</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -3737,7 +3750,7 @@
       <c r="AS30" s="36"/>
     </row>
     <row r="31" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="5" t="s">
         <v>52</v>
       </c>
@@ -3757,7 +3770,7 @@
         <v>44153</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
@@ -3798,7 +3811,7 @@
       <c r="AS31" s="36"/>
     </row>
     <row r="32" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="27" t="s">
         <v>85</v>
       </c>
@@ -3853,7 +3866,7 @@
       <c r="AS32" s="36"/>
     </row>
     <row r="33" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="19" t="s">
         <v>86</v>
       </c>
@@ -3873,7 +3886,7 @@
         <v>44159</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
@@ -3914,7 +3927,7 @@
       <c r="AS33" s="36"/>
     </row>
     <row r="34" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="19" t="s">
         <v>87</v>
       </c>
@@ -3934,7 +3947,7 @@
         <v>44153</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
@@ -3975,7 +3988,7 @@
       <c r="AS34" s="36"/>
     </row>
     <row r="35" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="19" t="s">
         <v>88</v>
       </c>
@@ -3995,7 +4008,7 @@
         <v>44153</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I35" s="39"/>
       <c r="J35" s="39"/>
@@ -4036,7 +4049,7 @@
       <c r="AS35" s="46"/>
     </row>
     <row r="36" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="19" t="s">
         <v>89</v>
       </c>
@@ -4095,7 +4108,7 @@
       <c r="AS36" s="33"/>
     </row>
     <row r="37" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="19" t="s">
         <v>90</v>
       </c>
@@ -4115,7 +4128,7 @@
         <v>44164</v>
       </c>
       <c r="H37" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I37" s="52"/>
       <c r="J37" s="40"/>
@@ -4156,13 +4169,13 @@
       <c r="AS37" s="33"/>
     </row>
     <row r="38" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8">
@@ -4176,7 +4189,7 @@
         <v>44169</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I38" s="52"/>
       <c r="J38" s="40"/>
@@ -4217,13 +4230,13 @@
       <c r="AS38" s="33"/>
     </row>
     <row r="39" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="28" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="8">
@@ -4237,7 +4250,7 @@
         <v>44169</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="52"/>
       <c r="J39" s="40"/>
@@ -4278,13 +4291,13 @@
       <c r="AS39" s="33"/>
     </row>
     <row r="40" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="28" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="8">
@@ -4298,7 +4311,7 @@
         <v>44169</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I40" s="52"/>
       <c r="J40" s="40"/>
@@ -4339,13 +4352,13 @@
       <c r="AS40" s="33"/>
     </row>
     <row r="41" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="8">
@@ -4359,7 +4372,7 @@
         <v>44174</v>
       </c>
       <c r="H41" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I41" s="52"/>
       <c r="J41" s="40"/>
@@ -4400,13 +4413,13 @@
       <c r="AS41" s="33"/>
     </row>
     <row r="42" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="28" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="8">
@@ -4420,7 +4433,7 @@
         <v>44174</v>
       </c>
       <c r="H42" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I42" s="52"/>
       <c r="J42" s="40"/>
@@ -4461,13 +4474,13 @@
       <c r="AS42" s="33"/>
     </row>
     <row r="43" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="28" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="8">
@@ -4481,7 +4494,7 @@
         <v>44174</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I43" s="52"/>
       <c r="J43" s="40"/>
@@ -4522,13 +4535,13 @@
       <c r="AS43" s="33"/>
     </row>
     <row r="44" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="8">
@@ -4542,7 +4555,7 @@
         <v>44183</v>
       </c>
       <c r="H44" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I44" s="52"/>
       <c r="J44" s="40"/>
@@ -4583,13 +4596,13 @@
       <c r="AS44" s="33"/>
     </row>
     <row r="45" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C45" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="8">
@@ -4603,7 +4616,7 @@
         <v>44183</v>
       </c>
       <c r="H45" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I45" s="52"/>
       <c r="J45" s="40"/>
@@ -4644,13 +4657,13 @@
       <c r="AS45" s="33"/>
     </row>
     <row r="46" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
+      <c r="A46" s="63"/>
       <c r="B46" s="28" t="s">
         <v>99</v>
       </c>
       <c r="C46" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="8">
@@ -4664,7 +4677,7 @@
         <v>44183</v>
       </c>
       <c r="H46" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I46" s="52"/>
       <c r="J46" s="40"/>
@@ -4705,13 +4718,13 @@
       <c r="AS46" s="33"/>
     </row>
     <row r="47" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="28" t="s">
         <v>100</v>
       </c>
       <c r="C47" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="8">
@@ -4725,7 +4738,7 @@
         <v>44183</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" s="52"/>
       <c r="J47" s="40"/>
@@ -4766,13 +4779,13 @@
       <c r="AS47" s="33"/>
     </row>
     <row r="48" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="28" t="s">
         <v>101</v>
       </c>
       <c r="C48" s="9">
         <f t="shared" ref="C48:C106" ca="1" si="5">IF(($K$1-F48+1)/E48&gt;=1,1,IF(($K$1-F48+1)/E48&lt;0,0, ($K$1-F48+1)/E48))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="8">
@@ -4786,7 +4799,7 @@
         <v>44183</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I48" s="52"/>
       <c r="J48" s="40"/>
@@ -4827,13 +4840,13 @@
       <c r="AS48" s="33"/>
     </row>
     <row r="49" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C49" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="8">
@@ -4847,7 +4860,7 @@
         <v>44183</v>
       </c>
       <c r="H49" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I49" s="52"/>
       <c r="J49" s="40"/>
@@ -4888,13 +4901,13 @@
       <c r="AS49" s="33"/>
     </row>
     <row r="50" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="28" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="8">
@@ -4908,7 +4921,7 @@
         <v>44183</v>
       </c>
       <c r="H50" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I50" s="52"/>
       <c r="J50" s="40"/>
@@ -4949,13 +4962,13 @@
       <c r="AS50" s="33"/>
     </row>
     <row r="51" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="8">
@@ -4969,7 +4982,7 @@
         <v>44183</v>
       </c>
       <c r="H51" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I51" s="52"/>
       <c r="J51" s="40"/>
@@ -5010,13 +5023,13 @@
       <c r="AS51" s="33"/>
     </row>
     <row r="52" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C52" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="8">
@@ -5030,7 +5043,7 @@
         <v>44173</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I52" s="52"/>
       <c r="J52" s="40"/>
@@ -5071,7 +5084,7 @@
       <c r="AS52" s="33"/>
     </row>
     <row r="53" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="27" t="s">
         <v>106</v>
       </c>
@@ -5126,7 +5139,7 @@
       <c r="AS53" s="33"/>
     </row>
     <row r="54" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="19" t="s">
         <v>86</v>
       </c>
@@ -5185,7 +5198,7 @@
       <c r="AS54" s="33"/>
     </row>
     <row r="55" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="19" t="s">
         <v>88</v>
       </c>
@@ -5244,7 +5257,7 @@
       <c r="AS55" s="33"/>
     </row>
     <row r="56" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="59"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="19" t="s">
         <v>107</v>
       </c>
@@ -5303,7 +5316,7 @@
       <c r="AS56" s="33"/>
     </row>
     <row r="57" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="59"/>
+      <c r="A57" s="63"/>
       <c r="B57" s="19" t="s">
         <v>108</v>
       </c>
@@ -5362,7 +5375,7 @@
       <c r="AS57" s="33"/>
     </row>
     <row r="58" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="19" t="s">
         <v>109</v>
       </c>
@@ -5382,7 +5395,7 @@
         <v>44164</v>
       </c>
       <c r="H58" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="40"/>
@@ -5423,7 +5436,7 @@
       <c r="AS58" s="33"/>
     </row>
     <row r="59" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="59"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="19" t="s">
         <v>110</v>
       </c>
@@ -5443,7 +5456,7 @@
         <v>44164</v>
       </c>
       <c r="H59" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="40"/>
@@ -5484,7 +5497,7 @@
       <c r="AS59" s="33"/>
     </row>
     <row r="60" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="59"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="19" t="s">
         <v>111</v>
       </c>
@@ -5504,7 +5517,7 @@
         <v>44166</v>
       </c>
       <c r="H60" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I60" s="52"/>
       <c r="J60" s="40"/>
@@ -5545,7 +5558,7 @@
       <c r="AS60" s="33"/>
     </row>
     <row r="61" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="59"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="19" t="s">
         <v>112</v>
       </c>
@@ -5565,7 +5578,7 @@
         <v>44164</v>
       </c>
       <c r="H61" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I61" s="52"/>
       <c r="J61" s="40"/>
@@ -5606,7 +5619,7 @@
       <c r="AS61" s="33"/>
     </row>
     <row r="62" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="19" t="s">
         <v>113</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>44165</v>
       </c>
       <c r="H62" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I62" s="52"/>
       <c r="J62" s="40"/>
@@ -5667,13 +5680,13 @@
       <c r="AS62" s="33"/>
     </row>
     <row r="63" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="59"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.94444444444444442</v>
+        <v>1</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="8">
@@ -5687,7 +5700,7 @@
         <v>44169</v>
       </c>
       <c r="H63" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I63" s="52"/>
       <c r="J63" s="40"/>
@@ -5728,7 +5741,7 @@
       <c r="AS63" s="33"/>
     </row>
     <row r="64" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="59"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="28" t="s">
         <v>115</v>
       </c>
@@ -5748,7 +5761,7 @@
         <v>44153</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I64" s="52"/>
       <c r="J64" s="40"/>
@@ -5789,13 +5802,13 @@
       <c r="AS64" s="33"/>
     </row>
     <row r="65" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="59"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="28" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="8">
@@ -5809,7 +5822,7 @@
         <v>44169</v>
       </c>
       <c r="H65" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I65" s="52"/>
       <c r="J65" s="40"/>
@@ -5850,13 +5863,13 @@
       <c r="AS65" s="33"/>
     </row>
     <row r="66" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="59"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="28" t="s">
         <v>117</v>
       </c>
       <c r="C66" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="8">
@@ -5870,7 +5883,7 @@
         <v>44169</v>
       </c>
       <c r="H66" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I66" s="52"/>
       <c r="J66" s="40"/>
@@ -5911,9 +5924,9 @@
       <c r="AS66" s="33"/>
     </row>
     <row r="67" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="59"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="28" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -5931,7 +5944,7 @@
         <v>44163</v>
       </c>
       <c r="H67" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I67" s="52"/>
       <c r="J67" s="40"/>
@@ -5972,13 +5985,13 @@
       <c r="AS67" s="33"/>
     </row>
     <row r="68" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="59"/>
+      <c r="A68" s="63"/>
       <c r="B68" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="8">
@@ -5992,7 +6005,7 @@
         <v>44169</v>
       </c>
       <c r="H68" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I68" s="52"/>
       <c r="J68" s="40"/>
@@ -6033,9 +6046,9 @@
       <c r="AS68" s="33"/>
     </row>
     <row r="69" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="59"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -6053,7 +6066,7 @@
         <v>44153</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I69" s="52"/>
       <c r="J69" s="40"/>
@@ -6094,13 +6107,13 @@
       <c r="AS69" s="33"/>
     </row>
     <row r="70" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="59"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="8">
@@ -6114,7 +6127,7 @@
         <v>44169</v>
       </c>
       <c r="H70" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I70" s="52"/>
       <c r="J70" s="40"/>
@@ -6155,13 +6168,13 @@
       <c r="AS70" s="33"/>
     </row>
     <row r="71" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="59"/>
+      <c r="A71" s="63"/>
       <c r="B71" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="8">
@@ -6175,7 +6188,7 @@
         <v>44171</v>
       </c>
       <c r="H71" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I71" s="52"/>
       <c r="J71" s="40"/>
@@ -6216,13 +6229,13 @@
       <c r="AS71" s="33"/>
     </row>
     <row r="72" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="59"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="8">
@@ -6236,7 +6249,7 @@
         <v>44171</v>
       </c>
       <c r="H72" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I72" s="52"/>
       <c r="J72" s="40"/>
@@ -6277,9 +6290,9 @@
       <c r="AS72" s="33"/>
     </row>
     <row r="73" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="59"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -6297,7 +6310,7 @@
         <v>44166</v>
       </c>
       <c r="H73" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I73" s="52"/>
       <c r="J73" s="40"/>
@@ -6338,13 +6351,13 @@
       <c r="AS73" s="33"/>
     </row>
     <row r="74" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="59"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="8">
@@ -6358,7 +6371,7 @@
         <v>44176</v>
       </c>
       <c r="H74" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I74" s="52"/>
       <c r="J74" s="40"/>
@@ -6399,13 +6412,13 @@
       <c r="AS74" s="33"/>
     </row>
     <row r="75" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="59"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="8">
@@ -6458,9 +6471,9 @@
       <c r="AS75" s="33"/>
     </row>
     <row r="76" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="59"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C76" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -6513,7 +6526,7 @@
       <c r="AS76" s="33"/>
     </row>
     <row r="77" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="59"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="19" t="s">
         <v>86</v>
       </c>
@@ -6572,7 +6585,7 @@
       <c r="AS77" s="33"/>
     </row>
     <row r="78" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="59"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="19" t="s">
         <v>88</v>
       </c>
@@ -6631,7 +6644,7 @@
       <c r="AS78" s="33"/>
     </row>
     <row r="79" spans="1:45" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="59"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="19" t="s">
         <v>107</v>
       </c>
@@ -6690,9 +6703,9 @@
       <c r="AS79" s="33"/>
     </row>
     <row r="80" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="59"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C80" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -6710,7 +6723,7 @@
         <v>44165</v>
       </c>
       <c r="H80" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I80" s="52"/>
       <c r="J80" s="40"/>
@@ -6751,7 +6764,7 @@
       <c r="AS80" s="33"/>
     </row>
     <row r="81" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="59"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="19" t="s">
         <v>114</v>
       </c>
@@ -6771,7 +6784,7 @@
         <v>44163</v>
       </c>
       <c r="H81" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I81" s="52"/>
       <c r="J81" s="40"/>
@@ -6812,7 +6825,7 @@
       <c r="AS81" s="33"/>
     </row>
     <row r="82" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="28" t="s">
         <v>115</v>
       </c>
@@ -6832,7 +6845,7 @@
         <v>44153</v>
       </c>
       <c r="H82" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I82" s="52"/>
       <c r="J82" s="40"/>
@@ -6873,7 +6886,7 @@
       <c r="AS82" s="33"/>
     </row>
     <row r="83" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="59"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="28" t="s">
         <v>116</v>
       </c>
@@ -6893,7 +6906,7 @@
         <v>44163</v>
       </c>
       <c r="H83" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I83" s="52"/>
       <c r="J83" s="40"/>
@@ -6934,7 +6947,7 @@
       <c r="AS83" s="33"/>
     </row>
     <row r="84" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="28" t="s">
         <v>117</v>
       </c>
@@ -6954,7 +6967,7 @@
         <v>44163</v>
       </c>
       <c r="H84" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I84" s="52"/>
       <c r="J84" s="40"/>
@@ -6995,9 +7008,9 @@
       <c r="AS84" s="33"/>
     </row>
     <row r="85" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="28" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C85" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -7015,7 +7028,7 @@
         <v>44163</v>
       </c>
       <c r="H85" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I85" s="52"/>
       <c r="J85" s="40"/>
@@ -7056,9 +7069,9 @@
       <c r="AS85" s="33"/>
     </row>
     <row r="86" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -7076,7 +7089,7 @@
         <v>44163</v>
       </c>
       <c r="H86" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I86" s="52"/>
       <c r="J86" s="40"/>
@@ -7117,9 +7130,9 @@
       <c r="AS86" s="33"/>
     </row>
     <row r="87" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C87" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -7137,7 +7150,7 @@
         <v>44153</v>
       </c>
       <c r="H87" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I87" s="52"/>
       <c r="J87" s="40"/>
@@ -7178,9 +7191,9 @@
       <c r="AS87" s="33"/>
     </row>
     <row r="88" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="59"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C88" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -7198,7 +7211,7 @@
         <v>44163</v>
       </c>
       <c r="H88" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I88" s="52"/>
       <c r="J88" s="40"/>
@@ -7239,9 +7252,9 @@
       <c r="AS88" s="33"/>
     </row>
     <row r="89" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="59"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" s="9">
         <f t="shared" ca="1" si="7"/>
@@ -7259,7 +7272,7 @@
         <v>44164</v>
       </c>
       <c r="H89" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I89" s="52"/>
       <c r="J89" s="40"/>
@@ -7300,13 +7313,13 @@
       <c r="AS89" s="33"/>
     </row>
     <row r="90" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="59"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="8">
@@ -7320,7 +7333,7 @@
         <v>44171</v>
       </c>
       <c r="H90" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I90" s="52"/>
       <c r="J90" s="40"/>
@@ -7361,13 +7374,13 @@
       <c r="AS90" s="33"/>
     </row>
     <row r="91" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="59"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="8">
@@ -7381,7 +7394,7 @@
         <v>44171</v>
       </c>
       <c r="H91" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I91" s="52"/>
       <c r="J91" s="40"/>
@@ -7422,9 +7435,9 @@
       <c r="AS91" s="33"/>
     </row>
     <row r="92" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="59"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C92" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -7442,7 +7455,7 @@
         <v>44166</v>
       </c>
       <c r="H92" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I92" s="52"/>
       <c r="J92" s="40"/>
@@ -7483,13 +7496,13 @@
       <c r="AS92" s="33"/>
     </row>
     <row r="93" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="59"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="8">
@@ -7503,7 +7516,7 @@
         <v>44171</v>
       </c>
       <c r="H93" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I93" s="52"/>
       <c r="J93" s="40"/>
@@ -7544,13 +7557,13 @@
       <c r="AS93" s="33"/>
     </row>
     <row r="94" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
-      <c r="B94" s="19" t="s">
-        <v>135</v>
+      <c r="A94" s="63"/>
+      <c r="B94" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="C94" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="8">
@@ -7564,7 +7577,7 @@
         <v>44176</v>
       </c>
       <c r="H94" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I94" s="52"/>
       <c r="J94" s="40"/>
@@ -7605,13 +7618,13 @@
       <c r="AS94" s="33"/>
     </row>
     <row r="95" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="59"/>
-      <c r="B95" s="19" t="s">
-        <v>136</v>
+      <c r="A95" s="63"/>
+      <c r="B95" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="C95" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="8">
@@ -7625,7 +7638,7 @@
         <v>44178</v>
       </c>
       <c r="H95" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I95" s="52"/>
       <c r="J95" s="40"/>
@@ -7666,13 +7679,13 @@
       <c r="AS95" s="33"/>
     </row>
     <row r="96" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="59"/>
-      <c r="B96" s="19" t="s">
-        <v>137</v>
+      <c r="A96" s="63"/>
+      <c r="B96" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="C96" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="8">
@@ -7725,13 +7738,13 @@
       <c r="AS96" s="33"/>
     </row>
     <row r="97" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="59"/>
-      <c r="B97" s="19" t="s">
-        <v>138</v>
+      <c r="A97" s="63"/>
+      <c r="B97" s="72" t="s">
+        <v>137</v>
       </c>
       <c r="C97" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="8">
@@ -7784,9 +7797,9 @@
       <c r="AS97" s="33"/>
     </row>
     <row r="98" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="59"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -7839,9 +7852,9 @@
       <c r="AS98" s="33"/>
     </row>
     <row r="99" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="59"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -7898,13 +7911,13 @@
       <c r="AS99" s="33"/>
     </row>
     <row r="100" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="59"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C100" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="8">
@@ -7957,9 +7970,9 @@
       <c r="AS100" s="33"/>
     </row>
     <row r="101" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="59"/>
+      <c r="A101" s="63"/>
       <c r="B101" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -7977,7 +7990,7 @@
         <v>44153</v>
       </c>
       <c r="H101" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I101" s="52"/>
       <c r="J101" s="40"/>
@@ -8018,9 +8031,9 @@
       <c r="AS101" s="33"/>
     </row>
     <row r="102" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="59"/>
+      <c r="A102" s="63"/>
       <c r="B102" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8038,7 +8051,7 @@
         <v>44163</v>
       </c>
       <c r="H102" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I102" s="52"/>
       <c r="J102" s="40"/>
@@ -8079,9 +8092,9 @@
       <c r="AS102" s="33"/>
     </row>
     <row r="103" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="59"/>
+      <c r="A103" s="63"/>
       <c r="B103" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8099,7 +8112,7 @@
         <v>44163</v>
       </c>
       <c r="H103" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I103" s="52"/>
       <c r="J103" s="40"/>
@@ -8140,9 +8153,9 @@
       <c r="AS103" s="33"/>
     </row>
     <row r="104" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="59"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8160,7 +8173,7 @@
         <v>44163</v>
       </c>
       <c r="H104" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I104" s="52"/>
       <c r="J104" s="40"/>
@@ -8201,9 +8214,9 @@
       <c r="AS104" s="33"/>
     </row>
     <row r="105" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="59"/>
+      <c r="A105" s="63"/>
       <c r="B105" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8221,7 +8234,7 @@
         <v>44163</v>
       </c>
       <c r="H105" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I105" s="52"/>
       <c r="J105" s="40"/>
@@ -8262,13 +8275,13 @@
       <c r="AS105" s="33"/>
     </row>
     <row r="106" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="59"/>
+      <c r="A106" s="63"/>
       <c r="B106" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="8">
@@ -8282,7 +8295,7 @@
         <v>44171</v>
       </c>
       <c r="H106" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I106" s="52"/>
       <c r="J106" s="40"/>
@@ -8323,9 +8336,9 @@
       <c r="AS106" s="33"/>
     </row>
     <row r="107" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="59"/>
+      <c r="A107" s="63"/>
       <c r="B107" s="28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="9">
         <f t="shared" ref="C107:C109" ca="1" si="9">IF(($K$1-F107+1)/E107&gt;=1,1,IF(($K$1-F107+1)/E107&lt;0,0, ($K$1-F107+1)/E107))</f>
@@ -8343,7 +8356,7 @@
         <v>44164</v>
       </c>
       <c r="H107" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I107" s="52"/>
       <c r="J107" s="40"/>
@@ -8384,13 +8397,13 @@
       <c r="AS107" s="33"/>
     </row>
     <row r="108" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="59"/>
+      <c r="A108" s="63"/>
       <c r="B108" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C108" s="9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="8">
@@ -8404,7 +8417,7 @@
         <v>44171</v>
       </c>
       <c r="H108" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I108" s="52"/>
       <c r="J108" s="40"/>
@@ -8445,13 +8458,13 @@
       <c r="AS108" s="33"/>
     </row>
     <row r="109" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="59"/>
+      <c r="A109" s="63"/>
       <c r="B109" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="8">
@@ -8465,7 +8478,7 @@
         <v>44171</v>
       </c>
       <c r="H109" s="54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I109" s="52"/>
       <c r="J109" s="40"/>
@@ -8506,9 +8519,9 @@
       <c r="AS109" s="33"/>
     </row>
     <row r="110" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="59"/>
+      <c r="A110" s="63"/>
       <c r="B110" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="9">
         <f t="shared" ref="C110:C117" ca="1" si="11">IF(($K$1-F110+1)/E110&gt;=1,1,IF(($K$1-F110+1)/E110&lt;0,0, ($K$1-F110+1)/E110))</f>
@@ -8526,7 +8539,7 @@
         <v>44163</v>
       </c>
       <c r="H110" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I110" s="52"/>
       <c r="J110" s="40"/>
@@ -8567,9 +8580,9 @@
       <c r="AS110" s="33"/>
     </row>
     <row r="111" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="59"/>
+      <c r="A111" s="63"/>
       <c r="B111" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="9">
         <f t="shared" ca="1" si="11"/>
@@ -8587,7 +8600,7 @@
         <v>44163</v>
       </c>
       <c r="H111" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I111" s="52"/>
       <c r="J111" s="40"/>
@@ -8628,9 +8641,9 @@
       <c r="AS111" s="33"/>
     </row>
     <row r="112" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="59"/>
+      <c r="A112" s="63"/>
       <c r="B112" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" ca="1" si="11"/>
@@ -8648,7 +8661,7 @@
         <v>44153</v>
       </c>
       <c r="H112" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I112" s="52"/>
       <c r="J112" s="40"/>
@@ -8689,9 +8702,9 @@
       <c r="AS112" s="33"/>
     </row>
     <row r="113" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="59"/>
+      <c r="A113" s="63"/>
       <c r="B113" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="9">
         <f t="shared" ca="1" si="11"/>
@@ -8748,7 +8761,7 @@
       <c r="AS113" s="33"/>
     </row>
     <row r="114" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="59"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="26" t="s">
         <v>80</v>
       </c>
@@ -8764,7 +8777,7 @@
       <c r="F114" s="3"/>
       <c r="G114" s="51"/>
       <c r="H114" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I114" s="52"/>
       <c r="J114" s="40"/>
@@ -8805,13 +8818,13 @@
       <c r="AS114" s="33"/>
     </row>
     <row r="115" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="59"/>
+      <c r="A115" s="63"/>
       <c r="B115" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C115" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="8">
@@ -8825,7 +8838,7 @@
         <v>44176</v>
       </c>
       <c r="H115" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I115" s="52"/>
       <c r="J115" s="40"/>
@@ -8866,13 +8879,13 @@
       <c r="AS115" s="33"/>
     </row>
     <row r="116" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="59"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C116" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="8">
@@ -8886,7 +8899,7 @@
         <v>44178</v>
       </c>
       <c r="H116" s="54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I116" s="52"/>
       <c r="J116" s="40"/>
@@ -8927,13 +8940,13 @@
       <c r="AS116" s="33"/>
     </row>
     <row r="117" spans="1:45" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="59"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="19" t="s">
         <v>82</v>
       </c>
       <c r="C117" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="8">
@@ -9675,11 +9688,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A13"/>
     <mergeCell ref="A14:A117"/>
     <mergeCell ref="K1:P1"/>
     <mergeCell ref="Q1:T1"/>
@@ -9692,6 +9700,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
